--- a/dataset/2nd_data/hwang/hwang_product_1_data.xlsx
+++ b/dataset/2nd_data/hwang/hwang_product_1_data.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
-    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -59,12 +56,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -411,35 +407,25 @@
       <c r="L1" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 12</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 13</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 14</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 15</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 16</t>
-        </is>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>43139</v>
+      <c r="A2" t="n">
+        <v>20180208</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -493,8 +479,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>43139</v>
+      <c r="A3" t="n">
+        <v>20180208</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -548,8 +534,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>43139</v>
+      <c r="A4" t="n">
+        <v>20180208</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -603,8 +589,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>43139</v>
+      <c r="A5" t="n">
+        <v>20180208</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -658,8 +644,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>43139</v>
+      <c r="A6" t="n">
+        <v>20180208</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -713,8 +699,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>43139</v>
+      <c r="A7" t="n">
+        <v>20180208</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -768,8 +754,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>43145</v>
+      <c r="A8" t="n">
+        <v>20180214</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -823,8 +809,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>43145</v>
+      <c r="A9" t="n">
+        <v>20180214</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -878,8 +864,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>43145</v>
+      <c r="A10" t="n">
+        <v>20180214</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -933,8 +919,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>43145</v>
+      <c r="A11" t="n">
+        <v>20180214</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -988,8 +974,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>43145</v>
+      <c r="A12" t="n">
+        <v>20180214</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1043,8 +1029,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>43145</v>
+      <c r="A13" t="n">
+        <v>20180214</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1098,8 +1084,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>43153</v>
+      <c r="A14" t="n">
+        <v>20180222</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1153,8 +1139,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>43153</v>
+      <c r="A15" t="n">
+        <v>20180222</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1208,8 +1194,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>43153</v>
+      <c r="A16" t="n">
+        <v>20180222</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1263,8 +1249,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>43153</v>
+      <c r="A17" t="n">
+        <v>20180222</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1318,8 +1304,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>43153</v>
+      <c r="A18" t="n">
+        <v>20180222</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1373,8 +1359,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>43153</v>
+      <c r="A19" t="n">
+        <v>20180222</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1428,8 +1414,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>43160</v>
+      <c r="A20" t="n">
+        <v>20180301</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1483,8 +1469,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>43160</v>
+      <c r="A21" t="n">
+        <v>20180301</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1538,8 +1524,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>43160</v>
+      <c r="A22" t="n">
+        <v>20180301</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1593,8 +1579,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>43160</v>
+      <c r="A23" t="n">
+        <v>20180301</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1648,8 +1634,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>43160</v>
+      <c r="A24" t="n">
+        <v>20180301</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1703,8 +1689,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>43160</v>
+      <c r="A25" t="n">
+        <v>20180301</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1758,8 +1744,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>43167</v>
+      <c r="A26" t="n">
+        <v>20180308</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1813,8 +1799,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>43167</v>
+      <c r="A27" t="n">
+        <v>20180308</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1868,8 +1854,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>43167</v>
+      <c r="A28" t="n">
+        <v>20180308</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1923,8 +1909,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>43167</v>
+      <c r="A29" t="n">
+        <v>20180308</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1978,8 +1964,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>43167</v>
+      <c r="A30" t="n">
+        <v>20180308</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2033,8 +2019,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>43167</v>
+      <c r="A31" t="n">
+        <v>20180308</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2088,8 +2074,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>43174</v>
+      <c r="A32" t="n">
+        <v>20180315</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2143,8 +2129,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>43174</v>
+      <c r="A33" t="n">
+        <v>20180315</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2198,8 +2184,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>43174</v>
+      <c r="A34" t="n">
+        <v>20180315</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2253,8 +2239,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>43174</v>
+      <c r="A35" t="n">
+        <v>20180315</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2308,8 +2294,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>43174</v>
+      <c r="A36" t="n">
+        <v>20180315</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2363,8 +2349,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>43174</v>
+      <c r="A37" t="n">
+        <v>20180315</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2418,8 +2404,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>43181</v>
+      <c r="A38" t="n">
+        <v>20180322</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2473,8 +2459,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>43181</v>
+      <c r="A39" t="n">
+        <v>20180322</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2528,8 +2514,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>43181</v>
+      <c r="A40" t="n">
+        <v>20180322</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2583,8 +2569,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>43181</v>
+      <c r="A41" t="n">
+        <v>20180322</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2638,8 +2624,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>43181</v>
+      <c r="A42" t="n">
+        <v>20180322</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2693,8 +2679,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>43181</v>
+      <c r="A43" t="n">
+        <v>20180322</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2748,8 +2734,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>43188</v>
+      <c r="A44" t="n">
+        <v>20180329</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2803,8 +2789,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43188</v>
+      <c r="A45" t="n">
+        <v>20180329</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2858,8 +2844,8 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>43188</v>
+      <c r="A46" t="n">
+        <v>20180329</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2913,8 +2899,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>43188</v>
+      <c r="A47" t="n">
+        <v>20180329</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2968,8 +2954,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>43188</v>
+      <c r="A48" t="n">
+        <v>20180329</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3023,8 +3009,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>43188</v>
+      <c r="A49" t="n">
+        <v>20180329</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -3078,8 +3064,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>43195</v>
+      <c r="A50" t="n">
+        <v>20180405</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -3133,8 +3119,8 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>43195</v>
+      <c r="A51" t="n">
+        <v>20180405</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -3188,8 +3174,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>43195</v>
+      <c r="A52" t="n">
+        <v>20180405</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3243,8 +3229,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>43195</v>
+      <c r="A53" t="n">
+        <v>20180405</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3298,8 +3284,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>43195</v>
+      <c r="A54" t="n">
+        <v>20180405</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3353,8 +3339,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>43195</v>
+      <c r="A55" t="n">
+        <v>20180405</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3408,8 +3394,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>43202</v>
+      <c r="A56" t="n">
+        <v>20180412</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -3463,8 +3449,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>43202</v>
+      <c r="A57" t="n">
+        <v>20180412</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -3518,8 +3504,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>43202</v>
+      <c r="A58" t="n">
+        <v>20180412</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -3573,8 +3559,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>43202</v>
+      <c r="A59" t="n">
+        <v>20180412</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -3628,8 +3614,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>43202</v>
+      <c r="A60" t="n">
+        <v>20180412</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -3683,8 +3669,8 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>43202</v>
+      <c r="A61" t="n">
+        <v>20180412</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -3738,8 +3724,8 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>43208</v>
+      <c r="A62" t="n">
+        <v>20180418</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -3793,8 +3779,8 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>43208</v>
+      <c r="A63" t="n">
+        <v>20180418</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -3848,8 +3834,8 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>43208</v>
+      <c r="A64" t="n">
+        <v>20180418</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -3903,8 +3889,8 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>43208</v>
+      <c r="A65" t="n">
+        <v>20180418</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -3958,8 +3944,8 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>43208</v>
+      <c r="A66" t="n">
+        <v>20180418</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -4013,8 +3999,8 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>43208</v>
+      <c r="A67" t="n">
+        <v>20180418</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -4068,8 +4054,8 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>43216</v>
+      <c r="A68" t="n">
+        <v>20180426</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -4123,8 +4109,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>43216</v>
+      <c r="A69" t="n">
+        <v>20180426</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -4178,8 +4164,8 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>43216</v>
+      <c r="A70" t="n">
+        <v>20180426</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -4233,8 +4219,8 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>43216</v>
+      <c r="A71" t="n">
+        <v>20180426</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -4288,8 +4274,8 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>43216</v>
+      <c r="A72" t="n">
+        <v>20180426</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -4343,8 +4329,8 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>43216</v>
+      <c r="A73" t="n">
+        <v>20180426</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -4398,8 +4384,8 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>43223</v>
+      <c r="A74" t="n">
+        <v>20180503</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -4453,8 +4439,8 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>43223</v>
+      <c r="A75" t="n">
+        <v>20180503</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -4508,8 +4494,8 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>43223</v>
+      <c r="A76" t="n">
+        <v>20180503</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -4563,8 +4549,8 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>43223</v>
+      <c r="A77" t="n">
+        <v>20180503</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -4618,8 +4604,8 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>43223</v>
+      <c r="A78" t="n">
+        <v>20180503</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -4673,8 +4659,8 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>43223</v>
+      <c r="A79" t="n">
+        <v>20180503</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -4728,8 +4714,8 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>43230</v>
+      <c r="A80" t="n">
+        <v>20180510</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -4783,8 +4769,8 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>43230</v>
+      <c r="A81" t="n">
+        <v>20180510</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -4838,8 +4824,8 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>43230</v>
+      <c r="A82" t="n">
+        <v>20180510</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -4893,8 +4879,8 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>43230</v>
+      <c r="A83" t="n">
+        <v>20180510</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -4948,8 +4934,8 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>43230</v>
+      <c r="A84" t="n">
+        <v>20180510</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -5003,8 +4989,8 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>43230</v>
+      <c r="A85" t="n">
+        <v>20180510</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -5058,8 +5044,8 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n">
-        <v>43237</v>
+      <c r="A86" t="n">
+        <v>20180517</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -5113,8 +5099,8 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="n">
-        <v>43237</v>
+      <c r="A87" t="n">
+        <v>20180517</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -5168,8 +5154,8 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
-        <v>43237</v>
+      <c r="A88" t="n">
+        <v>20180517</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -5223,8 +5209,8 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
-        <v>43237</v>
+      <c r="A89" t="n">
+        <v>20180517</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -5278,8 +5264,8 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
-        <v>43237</v>
+      <c r="A90" t="n">
+        <v>20180517</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -5333,8 +5319,8 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="n">
-        <v>43237</v>
+      <c r="A91" t="n">
+        <v>20180517</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -5388,8 +5374,8 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n">
-        <v>43244</v>
+      <c r="A92" t="n">
+        <v>20180524</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -5443,8 +5429,8 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n">
-        <v>43244</v>
+      <c r="A93" t="n">
+        <v>20180524</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -5498,8 +5484,8 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
-        <v>43244</v>
+      <c r="A94" t="n">
+        <v>20180524</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -5553,8 +5539,8 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
-        <v>43244</v>
+      <c r="A95" t="n">
+        <v>20180524</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -5608,8 +5594,8 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
-        <v>43244</v>
+      <c r="A96" t="n">
+        <v>20180524</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -5663,8 +5649,8 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n">
-        <v>43244</v>
+      <c r="A97" t="n">
+        <v>20180524</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -5718,8 +5704,8 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="n">
-        <v>43251</v>
+      <c r="A98" t="n">
+        <v>20180531</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -5773,8 +5759,8 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n">
-        <v>43251</v>
+      <c r="A99" t="n">
+        <v>20180531</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -5828,8 +5814,8 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n">
-        <v>43251</v>
+      <c r="A100" t="n">
+        <v>20180531</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -5883,8 +5869,8 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n">
-        <v>43251</v>
+      <c r="A101" t="n">
+        <v>20180531</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -5938,8 +5924,8 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n">
-        <v>43251</v>
+      <c r="A102" t="n">
+        <v>20180531</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -5993,8 +5979,8 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n">
-        <v>43251</v>
+      <c r="A103" t="n">
+        <v>20180531</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -6048,8 +6034,8 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n">
-        <v>43258</v>
+      <c r="A104" t="n">
+        <v>20180607</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -6103,8 +6089,8 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
-        <v>43258</v>
+      <c r="A105" t="n">
+        <v>20180607</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -6158,8 +6144,8 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
-        <v>43258</v>
+      <c r="A106" t="n">
+        <v>20180607</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -6213,8 +6199,8 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n">
-        <v>43258</v>
+      <c r="A107" t="n">
+        <v>20180607</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -6268,8 +6254,8 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n">
-        <v>43258</v>
+      <c r="A108" t="n">
+        <v>20180607</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -6323,8 +6309,8 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n">
-        <v>43258</v>
+      <c r="A109" t="n">
+        <v>20180607</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -6378,8 +6364,8 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
-        <v>43265</v>
+      <c r="A110" t="n">
+        <v>20180614</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -6433,8 +6419,8 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
-        <v>43265</v>
+      <c r="A111" t="n">
+        <v>20180614</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -6488,8 +6474,8 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
-        <v>43265</v>
+      <c r="A112" t="n">
+        <v>20180614</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -6543,8 +6529,8 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n">
-        <v>43265</v>
+      <c r="A113" t="n">
+        <v>20180614</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -6598,8 +6584,8 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n">
-        <v>43265</v>
+      <c r="A114" t="n">
+        <v>20180614</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -6653,8 +6639,8 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
-        <v>43265</v>
+      <c r="A115" t="n">
+        <v>20180614</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -6708,8 +6694,8 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
-        <v>43272</v>
+      <c r="A116" t="n">
+        <v>20180621</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -6763,8 +6749,8 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n">
-        <v>43272</v>
+      <c r="A117" t="n">
+        <v>20180621</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -6818,8 +6804,8 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
-        <v>43272</v>
+      <c r="A118" t="n">
+        <v>20180621</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -6873,8 +6859,8 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
-        <v>43272</v>
+      <c r="A119" t="n">
+        <v>20180621</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -6928,8 +6914,8 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
-        <v>43272</v>
+      <c r="A120" t="n">
+        <v>20180621</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -6983,8 +6969,8 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
-        <v>43272</v>
+      <c r="A121" t="n">
+        <v>20180621</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
